--- a/capstone1_data_complete.xlsx
+++ b/capstone1_data_complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damiem_outlook\Desktop\capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funmi\Desktop\TEKsystems Data Analyst Boot Camp\Week 4\Capstone\Tek_Capstone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D8AD0-517E-407C-A6BC-735872D2D6B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5118B-8549-436F-BACE-5426D74460A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4CE0BFA1-3F48-47F9-9294-3EF16AEA761A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4CE0BFA1-3F48-47F9-9294-3EF16AEA761A}"/>
   </bookViews>
   <sheets>
     <sheet name="Toy_PowerBI_Example" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Toy_PowerBI_Example!$K$4:$N$24</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Toy_PowerBI_Example!$K$4:$N$24</definedName>
     <definedName name="MidVal">[1]Sales_Transactions_Dataset_Week!$BH$3</definedName>
     <definedName name="ModVal">[1]Sales_Transactions_Dataset_Week!$BH$2</definedName>
@@ -514,7 +513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,7 +578,50 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -646,29 +688,13 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2A2C1E9E-0AD7-48AF-9DD7-70F5D1E6F63F}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -742,11 +768,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2BF10B2D-E061-4251-821A-33DADDCEE720}" name="Table7" displayName="Table7" ref="C4:I9" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2BF10B2D-E061-4251-821A-33DADDCEE720}" name="Table7" displayName="Table7" ref="C4:I9" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="C4:I9" xr:uid="{BD92D24F-77DF-4397-B059-D99556F0CE07}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2EE46756-0885-4500-9F9C-49A4C84DC484}" name="Division/Sales Year" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{B123582C-7E03-4536-8CED-1088A27F627D}" name="Business Unit" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{2EE46756-0885-4500-9F9C-49A4C84DC484}" name="Division/Sales Year" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{B123582C-7E03-4536-8CED-1088A27F627D}" name="Business Unit" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{D6E5BA26-3660-45D3-9261-BDF07FBB1E45}" name="2016"/>
     <tableColumn id="3" xr3:uid="{2558BB8C-A121-4AF5-8653-579CB58D0D2D}" name="2017"/>
     <tableColumn id="4" xr3:uid="{555B5328-6571-44F2-BC48-202A0D8C2F9D}" name="2018"/>
@@ -761,9 +787,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2D3E3176-01D5-4C5A-90B6-5135A66E0457}" name="Table7_2" displayName="Table7_2" ref="K4:N24" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="K4:N24" xr:uid="{CFCBF834-2438-4FDE-A1A8-A98B4C5FBF6F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7FB89FEB-34CF-4E5D-A44B-3AAC1E7E9DF6}" uniqueName="1" name="Division/Sales Year" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2B137263-2257-40F8-932F-1AA29007894C}" uniqueName="4" name="Business Unit" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3C995385-0C5E-400C-87DC-10214F88290E}" uniqueName="2" name="Year" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7FB89FEB-34CF-4E5D-A44B-3AAC1E7E9DF6}" uniqueName="1" name="Division/Sales Year" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2B137263-2257-40F8-932F-1AA29007894C}" uniqueName="4" name="Business Unit" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3C995385-0C5E-400C-87DC-10214F88290E}" uniqueName="2" name="Year" queryTableFieldId="2" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{5CB7661B-31CA-4730-AE7B-E1DF81C0FAF6}" uniqueName="3" name="Sales" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -778,7 +804,7 @@
     <tableColumn id="2" xr3:uid="{E25A3A0D-4EB6-48B9-A9FD-C3040FE972BF}" name="PayGrade"/>
     <tableColumn id="3" xr3:uid="{1B854335-DB92-4BAC-915E-E1C716B6C479}" name="Region"/>
     <tableColumn id="5" xr3:uid="{51F8F2B3-F105-42C6-A6FC-F6966A20F4DB}" name="EmpID"/>
-    <tableColumn id="6" xr3:uid="{753BA58D-DD6C-49FF-9927-0296607DF489}" name="IsFound" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{753BA58D-DD6C-49FF-9927-0296607DF489}" name="IsFound" dataDxfId="7">
       <calculatedColumnFormula>ISNUMBER(MATCH(Table9[[#This Row],[EmpID]], capstone_productSales[EMP_ID], 0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -792,10 +818,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5BF5FFC9-79A9-4355-8F5B-632255EC4083}" name="Week0+"/>
     <tableColumn id="2" xr3:uid="{60DC4284-C1A9-48BF-ADC0-CE0EC06B04C7}" name="Week1+"/>
-    <tableColumn id="3" xr3:uid="{97628B7C-2A41-41F5-A4A4-65348C49B1DA}" name="Date" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{97628B7C-2A41-41F5-A4A4-65348C49B1DA}" name="Date" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{57AFDF04-5212-4799-98C8-CAB146248E02}" name="Sales Period"/>
     <tableColumn id="5" xr3:uid="{F2C7C765-0FE2-46BF-9467-20AE7474703F}" name="Sales Year"/>
-    <tableColumn id="6" xr3:uid="{EF9C3503-5537-406B-8F22-EA12DB295299}" name="Quarter" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{EF9C3503-5537-406B-8F22-EA12DB295299}" name="Quarter" dataDxfId="5">
       <calculatedColumnFormula>ROUNDUP(Table10[[#This Row],[Week1+]]/13, 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -810,7 +836,7 @@
     <tableColumn id="1" xr3:uid="{BAE973A8-4291-4637-9529-91F407B483CF}" name="PROD_CODE"/>
     <tableColumn id="2" xr3:uid="{6F972FAD-43CB-429B-92DB-13AEA16D3D45}" name="PROD_NAME"/>
     <tableColumn id="3" xr3:uid="{80181566-2E1C-4B67-AA21-1E50130AAF33}" name="URL"/>
-    <tableColumn id="15" xr3:uid="{E5A9102D-3D99-4EF7-A331-2CBC76CC6B73}" name="link" dataDxfId="10">
+    <tableColumn id="15" xr3:uid="{E5A9102D-3D99-4EF7-A331-2CBC76CC6B73}" name="link" dataDxfId="4">
       <calculatedColumnFormula>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{FE1CF50A-5EBB-433B-B44E-D18A0E76360C}" name="Manufacturer"/>
@@ -834,8 +860,8 @@
   <autoFilter ref="B3:BE163" xr:uid="{2795BCF6-36F4-4E41-B695-AFEF360EFA2C}"/>
   <tableColumns count="56">
     <tableColumn id="56" xr3:uid="{99B36AA3-1222-4E8F-97F4-44F3C5D10304}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{50A8D97E-B2A7-4F84-81C8-DB1EDEE0F500}" name="ITEM_CODE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{179A1A1C-1B03-4F57-BD1E-79939B8CC8AB}" name="EMP_ID" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{50A8D97E-B2A7-4F84-81C8-DB1EDEE0F500}" name="ITEM_CODE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{179A1A1C-1B03-4F57-BD1E-79939B8CC8AB}" name="EMP_ID" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{351AA52B-F072-4406-B61B-DB3EEE82043F}" name="Year"/>
     <tableColumn id="4" xr3:uid="{2343E44D-116B-445F-9F1F-FF5BB8914828}" name="W0"/>
     <tableColumn id="5" xr3:uid="{85194E5C-D2D1-4A87-92F0-FB8A6B739230}" name="W1"/>
@@ -1193,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87782B15-ED6E-41BE-BE53-52D598513C15}">
   <dimension ref="C2:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,8 +1682,8 @@
   </sheetPr>
   <dimension ref="B2:AD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,8 +4443,8 @@
   </sheetPr>
   <dimension ref="A1:BE163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:BE163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/capstone1_data_complete.xlsx
+++ b/capstone1_data_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funmi\Desktop\TEKsystems Data Analyst Boot Camp\Week 4\Capstone\Tek_Capstone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5118B-8549-436F-BACE-5426D74460A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DF653-1DC9-4E00-9D91-EDF690C99D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4CE0BFA1-3F48-47F9-9294-3EF16AEA761A}"/>
   </bookViews>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>PROD_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV34 Gas </t>
   </si>
   <si>
     <t>https://www.bobcat.com/utility-products/utv/UV34/UV34-gas-utv</t>
@@ -509,6 +506,9 @@
   <si>
     <t>IsFound</t>
   </si>
+  <si>
+    <t>UV34 Gas</t>
+  </si>
 </sst>
 </file>
 
@@ -579,28 +579,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -688,11 +666,33 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2A2C1E9E-0AD7-48AF-9DD7-70F5D1E6F63F}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -768,11 +768,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2BF10B2D-E061-4251-821A-33DADDCEE720}" name="Table7" displayName="Table7" ref="C4:I9" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2BF10B2D-E061-4251-821A-33DADDCEE720}" name="Table7" displayName="Table7" ref="C4:I9" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="C4:I9" xr:uid="{BD92D24F-77DF-4397-B059-D99556F0CE07}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2EE46756-0885-4500-9F9C-49A4C84DC484}" name="Division/Sales Year" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{B123582C-7E03-4536-8CED-1088A27F627D}" name="Business Unit" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{2EE46756-0885-4500-9F9C-49A4C84DC484}" name="Division/Sales Year" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{B123582C-7E03-4536-8CED-1088A27F627D}" name="Business Unit" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{D6E5BA26-3660-45D3-9261-BDF07FBB1E45}" name="2016"/>
     <tableColumn id="3" xr3:uid="{2558BB8C-A121-4AF5-8653-579CB58D0D2D}" name="2017"/>
     <tableColumn id="4" xr3:uid="{555B5328-6571-44F2-BC48-202A0D8C2F9D}" name="2018"/>
@@ -787,9 +787,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2D3E3176-01D5-4C5A-90B6-5135A66E0457}" name="Table7_2" displayName="Table7_2" ref="K4:N24" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="K4:N24" xr:uid="{CFCBF834-2438-4FDE-A1A8-A98B4C5FBF6F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7FB89FEB-34CF-4E5D-A44B-3AAC1E7E9DF6}" uniqueName="1" name="Division/Sales Year" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2B137263-2257-40F8-932F-1AA29007894C}" uniqueName="4" name="Business Unit" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3C995385-0C5E-400C-87DC-10214F88290E}" uniqueName="2" name="Year" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7FB89FEB-34CF-4E5D-A44B-3AAC1E7E9DF6}" uniqueName="1" name="Division/Sales Year" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2B137263-2257-40F8-932F-1AA29007894C}" uniqueName="4" name="Business Unit" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3C995385-0C5E-400C-87DC-10214F88290E}" uniqueName="2" name="Year" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{5CB7661B-31CA-4730-AE7B-E1DF81C0FAF6}" uniqueName="3" name="Sales" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -804,7 +804,7 @@
     <tableColumn id="2" xr3:uid="{E25A3A0D-4EB6-48B9-A9FD-C3040FE972BF}" name="PayGrade"/>
     <tableColumn id="3" xr3:uid="{1B854335-DB92-4BAC-915E-E1C716B6C479}" name="Region"/>
     <tableColumn id="5" xr3:uid="{51F8F2B3-F105-42C6-A6FC-F6966A20F4DB}" name="EmpID"/>
-    <tableColumn id="6" xr3:uid="{753BA58D-DD6C-49FF-9927-0296607DF489}" name="IsFound" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{753BA58D-DD6C-49FF-9927-0296607DF489}" name="IsFound" dataDxfId="5">
       <calculatedColumnFormula>ISNUMBER(MATCH(Table9[[#This Row],[EmpID]], capstone_productSales[EMP_ID], 0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -818,10 +818,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5BF5FFC9-79A9-4355-8F5B-632255EC4083}" name="Week0+"/>
     <tableColumn id="2" xr3:uid="{60DC4284-C1A9-48BF-ADC0-CE0EC06B04C7}" name="Week1+"/>
-    <tableColumn id="3" xr3:uid="{97628B7C-2A41-41F5-A4A4-65348C49B1DA}" name="Date" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{97628B7C-2A41-41F5-A4A4-65348C49B1DA}" name="Date" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{57AFDF04-5212-4799-98C8-CAB146248E02}" name="Sales Period"/>
     <tableColumn id="5" xr3:uid="{F2C7C765-0FE2-46BF-9467-20AE7474703F}" name="Sales Year"/>
-    <tableColumn id="6" xr3:uid="{EF9C3503-5537-406B-8F22-EA12DB295299}" name="Quarter" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{EF9C3503-5537-406B-8F22-EA12DB295299}" name="Quarter" dataDxfId="3">
       <calculatedColumnFormula>ROUNDUP(Table10[[#This Row],[Week1+]]/13, 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -836,7 +836,7 @@
     <tableColumn id="1" xr3:uid="{BAE973A8-4291-4637-9529-91F407B483CF}" name="PROD_CODE"/>
     <tableColumn id="2" xr3:uid="{6F972FAD-43CB-429B-92DB-13AEA16D3D45}" name="PROD_NAME"/>
     <tableColumn id="3" xr3:uid="{80181566-2E1C-4B67-AA21-1E50130AAF33}" name="URL"/>
-    <tableColumn id="15" xr3:uid="{E5A9102D-3D99-4EF7-A331-2CBC76CC6B73}" name="link" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{E5A9102D-3D99-4EF7-A331-2CBC76CC6B73}" name="link" dataDxfId="2">
       <calculatedColumnFormula>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{FE1CF50A-5EBB-433B-B44E-D18A0E76360C}" name="Manufacturer"/>
@@ -860,8 +860,8 @@
   <autoFilter ref="B3:BE163" xr:uid="{2795BCF6-36F4-4E41-B695-AFEF360EFA2C}"/>
   <tableColumns count="56">
     <tableColumn id="56" xr3:uid="{99B36AA3-1222-4E8F-97F4-44F3C5D10304}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{50A8D97E-B2A7-4F84-81C8-DB1EDEE0F500}" name="ITEM_CODE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{179A1A1C-1B03-4F57-BD1E-79939B8CC8AB}" name="EMP_ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{50A8D97E-B2A7-4F84-81C8-DB1EDEE0F500}" name="ITEM_CODE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{179A1A1C-1B03-4F57-BD1E-79939B8CC8AB}" name="EMP_ID" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{351AA52B-F072-4406-B61B-DB3EEE82043F}" name="Year"/>
     <tableColumn id="4" xr3:uid="{2343E44D-116B-445F-9F1F-FF5BB8914828}" name="W0"/>
     <tableColumn id="5" xr3:uid="{85194E5C-D2D1-4A87-92F0-FB8A6B739230}" name="W1"/>
@@ -1234,58 +1234,58 @@
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" t="s">
         <v>140</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>3718</v>
@@ -1303,13 +1303,13 @@
         <v>9553</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N5">
         <v>3718</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>5000</v>
@@ -1338,13 +1338,13 @@
         <v>8157</v>
       </c>
       <c r="K6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N6">
         <v>8577</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>1320</v>
@@ -1373,13 +1373,13 @@
         <v>9983</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N7">
         <v>1993</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>100000</v>
@@ -1408,13 +1408,13 @@
         <v>8843</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N8">
         <v>3690</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>5085</v>
@@ -1443,13 +1443,13 @@
         <v>9299</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N9">
         <v>9553</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N10">
         <v>1320</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N11">
         <v>6676</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N12">
         <v>1771</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N13">
         <v>4000</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>9983</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N15">
         <v>100000</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N16">
         <v>7505</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N17">
         <v>5121</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18">
         <v>2235</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N19">
         <v>8843</v>
@@ -1597,13 +1597,13 @@
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N20">
         <v>5085</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N21">
         <v>7125</v>
@@ -1625,13 +1625,13 @@
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22">
         <v>1069</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="23" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" t="s">
         <v>129</v>
-      </c>
-      <c r="L23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" t="s">
-        <v>130</v>
       </c>
       <c r="N23">
         <v>4145</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="24" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N24">
         <v>9299</v>
@@ -1682,8 +1682,8 @@
   </sheetPr>
   <dimension ref="B2:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,28 +1725,28 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
@@ -1805,7 +1805,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" t="b">
         <f>ISNUMBER(MATCH(Table9[[#This Row],[EmpID]], capstone_productSales[EMP_ID], 0))</f>
@@ -1888,7 +1888,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" t="b">
         <f>ISNUMBER(MATCH(Table9[[#This Row],[EmpID]], capstone_productSales[EMP_ID], 0))</f>
@@ -1917,20 +1917,20 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" t="s">
         <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
       </c>
       <c r="S5" s="1" t="str">
         <f>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</f>
-        <v xml:space="preserve">UV34 Gas </v>
+        <v>UV34 Gas</v>
       </c>
       <c r="T5" t="s">
         <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V5">
         <v>843</v>
@@ -1962,16 +1962,16 @@
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" t="b">
         <f>ISNUMBER(MATCH(Table9[[#This Row],[EmpID]], capstone_productSales[EMP_ID], 0))</f>
@@ -1997,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>40</v>
-      </c>
-      <c r="R6" t="s">
-        <v>41</v>
       </c>
       <c r="S6" s="1" t="str">
         <f>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</f>
@@ -2013,7 +2013,7 @@
         <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V6">
         <v>843</v>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" t="b">
         <f>ISNUMBER(MATCH(Table9[[#This Row],[EmpID]], capstone_productSales[EMP_ID], 0))</f>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>47</v>
-      </c>
-      <c r="R7" t="s">
-        <v>48</v>
       </c>
       <c r="S7" s="1" t="str">
         <f>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</f>
@@ -2096,7 +2096,7 @@
         <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V7">
         <v>1027</v>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" t="b">
         <f>ISNUMBER(MATCH(Table9[[#This Row],[EmpID]], capstone_productSales[EMP_ID], 0))</f>
@@ -2163,23 +2163,23 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>52</v>
-      </c>
-      <c r="R8" t="s">
-        <v>53</v>
       </c>
       <c r="S8" s="1" t="str">
         <f>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</f>
         <v>CUV82</v>
       </c>
       <c r="T8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" t="s">
         <v>54</v>
-      </c>
-      <c r="U8" t="s">
-        <v>55</v>
       </c>
       <c r="V8">
         <v>843</v>
@@ -2230,23 +2230,23 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>57</v>
-      </c>
-      <c r="R9" t="s">
-        <v>58</v>
       </c>
       <c r="S9" s="1" t="str">
         <f>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</f>
         <v>Gator XUV 590M</v>
       </c>
       <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
         <v>59</v>
-      </c>
-      <c r="U9" t="s">
-        <v>60</v>
       </c>
       <c r="V9">
         <v>843</v>
@@ -2297,23 +2297,23 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" t="s">
-        <v>62</v>
-      </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S10" s="1" t="str">
         <f>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</f>
         <v>Z930M Ztrack</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V10">
         <v>843</v>
@@ -2364,23 +2364,23 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" t="s">
-        <v>65</v>
-      </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S11" s="1" t="str">
         <f>HYPERLINK(Table11[[#This Row],[URL]], Table11[[#This Row],[PROD_NAME]])</f>
         <v>1025R Sub-Compact Tractor</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V11">
         <v>978</v>
@@ -4460,182 +4460,182 @@
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AR3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AW3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AX3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AZ3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BA3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BB3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BC3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BE3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
@@ -4643,10 +4643,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -4813,10 +4813,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -4983,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -5153,10 +5153,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>2019</v>
@@ -5323,10 +5323,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -5493,10 +5493,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>2019</v>
@@ -5663,10 +5663,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>2020</v>
@@ -5833,10 +5833,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11">
         <v>2019</v>
@@ -6003,10 +6003,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -6173,10 +6173,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13">
         <v>2019</v>
@@ -6343,10 +6343,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -6513,10 +6513,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15">
         <v>2019</v>
@@ -6686,7 +6686,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -6856,7 +6856,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17">
         <v>2019</v>
@@ -7023,10 +7023,10 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18">
         <v>2020</v>
@@ -7193,10 +7193,10 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19">
         <v>2019</v>
@@ -7366,7 +7366,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20">
         <v>2020</v>
@@ -7536,7 +7536,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21">
         <v>2019</v>
@@ -7703,10 +7703,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>2020</v>
@@ -7873,10 +7873,10 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23">
         <v>2019</v>
@@ -8043,10 +8043,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24">
         <v>2020</v>
@@ -8213,10 +8213,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25">
         <v>2019</v>
@@ -8383,10 +8383,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>2020</v>
@@ -8553,10 +8553,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27">
         <v>2019</v>
@@ -8726,7 +8726,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28">
         <v>2020</v>
@@ -8896,7 +8896,7 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29">
         <v>2019</v>
@@ -9063,10 +9063,10 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30">
         <v>2020</v>
@@ -9233,10 +9233,10 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>2019</v>
@@ -9403,10 +9403,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32">
         <v>2020</v>
@@ -9573,10 +9573,10 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33">
         <v>2019</v>
@@ -9746,7 +9746,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34">
         <v>2020</v>
@@ -9916,7 +9916,7 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35">
         <v>2019</v>
@@ -10083,10 +10083,10 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36">
         <v>2020</v>
@@ -10253,10 +10253,10 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37">
         <v>2019</v>
@@ -10423,10 +10423,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E38">
         <v>2020</v>
@@ -10593,10 +10593,10 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39">
         <v>2019</v>
@@ -10763,10 +10763,10 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40">
         <v>2020</v>
@@ -10933,10 +10933,10 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41">
         <v>2019</v>
@@ -11103,10 +11103,10 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E42">
         <v>2020</v>
@@ -11273,10 +11273,10 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43">
         <v>2019</v>
@@ -11443,10 +11443,10 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44">
         <v>2020</v>
@@ -11613,10 +11613,10 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E45">
         <v>2019</v>
@@ -11786,7 +11786,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46">
         <v>2020</v>
@@ -11956,7 +11956,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47">
         <v>2019</v>
@@ -12123,10 +12123,10 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48">
         <v>2020</v>
@@ -12293,10 +12293,10 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49">
         <v>2019</v>
@@ -12466,7 +12466,7 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E50">
         <v>2020</v>
@@ -12636,7 +12636,7 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51">
         <v>2019</v>
@@ -12803,10 +12803,10 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52">
         <v>2020</v>
@@ -12973,10 +12973,10 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53">
         <v>2019</v>
@@ -13143,10 +13143,10 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54">
         <v>2020</v>
@@ -13313,10 +13313,10 @@
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55">
         <v>2019</v>
@@ -13483,10 +13483,10 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56">
         <v>2020</v>
@@ -13653,10 +13653,10 @@
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>2019</v>
@@ -13823,10 +13823,10 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58">
         <v>2020</v>
@@ -13993,10 +13993,10 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59">
         <v>2019</v>
@@ -14163,10 +14163,10 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60">
         <v>2020</v>
@@ -14333,10 +14333,10 @@
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E61">
         <v>2019</v>
@@ -14506,7 +14506,7 @@
         <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62">
         <v>2020</v>
@@ -14676,7 +14676,7 @@
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63">
         <v>2019</v>
@@ -14843,10 +14843,10 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E64">
         <v>2020</v>
@@ -15013,10 +15013,10 @@
         <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65">
         <v>2019</v>
@@ -15186,7 +15186,7 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66">
         <v>2020</v>
@@ -15356,7 +15356,7 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67">
         <v>2019</v>
@@ -15523,10 +15523,10 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E68">
         <v>2020</v>
@@ -15693,10 +15693,10 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E69">
         <v>2019</v>
@@ -15863,10 +15863,10 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70">
         <v>2020</v>
@@ -16033,10 +16033,10 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71">
         <v>2019</v>
@@ -16203,10 +16203,10 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72">
         <v>2020</v>
@@ -16373,10 +16373,10 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73">
         <v>2019</v>
@@ -16543,10 +16543,10 @@
         <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E74">
         <v>2020</v>
@@ -16713,10 +16713,10 @@
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E75">
         <v>2019</v>
@@ -16886,7 +16886,7 @@
         <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E76">
         <v>2020</v>
@@ -17056,7 +17056,7 @@
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E77">
         <v>2019</v>
@@ -17226,7 +17226,7 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E78">
         <v>2020</v>
@@ -17396,7 +17396,7 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E79">
         <v>2019</v>
@@ -17563,10 +17563,10 @@
         <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E80">
         <v>2020</v>
@@ -17733,10 +17733,10 @@
         <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E81">
         <v>2019</v>
@@ -17903,10 +17903,10 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E82">
         <v>2020</v>
@@ -18073,10 +18073,10 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E83">
         <v>2019</v>
@@ -18243,10 +18243,10 @@
         <v>81</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84">
         <v>2019</v>
@@ -18413,10 +18413,10 @@
         <v>82</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E85">
         <v>2020</v>
@@ -18583,10 +18583,10 @@
         <v>83</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E86">
         <v>2019</v>
@@ -18753,10 +18753,10 @@
         <v>84</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E87">
         <v>2020</v>
@@ -18923,10 +18923,10 @@
         <v>85</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E88">
         <v>2019</v>
@@ -19093,10 +19093,10 @@
         <v>86</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E89">
         <v>2020</v>
@@ -19263,10 +19263,10 @@
         <v>87</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E90">
         <v>2019</v>
@@ -19433,10 +19433,10 @@
         <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91">
         <v>2020</v>
@@ -19603,10 +19603,10 @@
         <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92">
         <v>2019</v>
@@ -19773,10 +19773,10 @@
         <v>90</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E93">
         <v>2020</v>
@@ -19943,10 +19943,10 @@
         <v>91</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E94">
         <v>2019</v>
@@ -20113,10 +20113,10 @@
         <v>92</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E95">
         <v>2020</v>
@@ -20283,10 +20283,10 @@
         <v>93</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E96">
         <v>2019</v>
@@ -20453,10 +20453,10 @@
         <v>94</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E97">
         <v>2020</v>
@@ -20623,10 +20623,10 @@
         <v>95</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E98">
         <v>2019</v>
@@ -20793,10 +20793,10 @@
         <v>96</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E99">
         <v>2020</v>
@@ -20963,10 +20963,10 @@
         <v>97</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E100">
         <v>2019</v>
@@ -21133,10 +21133,10 @@
         <v>98</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E101">
         <v>2020</v>
@@ -21303,10 +21303,10 @@
         <v>99</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E102">
         <v>2019</v>
@@ -21473,10 +21473,10 @@
         <v>100</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E103">
         <v>2020</v>
@@ -21643,10 +21643,10 @@
         <v>101</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E104">
         <v>2019</v>
@@ -21813,10 +21813,10 @@
         <v>102</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E105">
         <v>2020</v>
@@ -21983,10 +21983,10 @@
         <v>103</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E106">
         <v>2019</v>
@@ -22153,10 +22153,10 @@
         <v>104</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E107">
         <v>2020</v>
@@ -22323,10 +22323,10 @@
         <v>105</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E108">
         <v>2019</v>
@@ -22493,10 +22493,10 @@
         <v>106</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E109">
         <v>2020</v>
@@ -22663,10 +22663,10 @@
         <v>107</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E110">
         <v>2019</v>
@@ -22833,10 +22833,10 @@
         <v>108</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>2020</v>
@@ -23003,10 +23003,10 @@
         <v>109</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E112">
         <v>2019</v>
@@ -23173,10 +23173,10 @@
         <v>110</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E113">
         <v>2020</v>
@@ -23343,10 +23343,10 @@
         <v>111</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E114">
         <v>2019</v>
@@ -23513,10 +23513,10 @@
         <v>112</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E115">
         <v>2020</v>
@@ -23683,10 +23683,10 @@
         <v>113</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E116">
         <v>2019</v>
@@ -23853,10 +23853,10 @@
         <v>114</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E117">
         <v>2020</v>
@@ -24023,10 +24023,10 @@
         <v>115</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E118">
         <v>2019</v>
@@ -24193,10 +24193,10 @@
         <v>116</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E119">
         <v>2020</v>
@@ -24363,10 +24363,10 @@
         <v>117</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E120">
         <v>2019</v>
@@ -24533,10 +24533,10 @@
         <v>118</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E121">
         <v>2020</v>
@@ -24703,10 +24703,10 @@
         <v>119</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E122">
         <v>2019</v>
@@ -24873,10 +24873,10 @@
         <v>120</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E123">
         <v>2020</v>
@@ -25043,10 +25043,10 @@
         <v>121</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E124">
         <v>2019</v>
@@ -25213,10 +25213,10 @@
         <v>122</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E125">
         <v>2020</v>
@@ -25383,10 +25383,10 @@
         <v>123</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E126">
         <v>2019</v>
@@ -25553,10 +25553,10 @@
         <v>124</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E127">
         <v>2020</v>
@@ -25723,10 +25723,10 @@
         <v>125</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E128">
         <v>2019</v>
@@ -25893,10 +25893,10 @@
         <v>126</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E129">
         <v>2020</v>
@@ -26063,10 +26063,10 @@
         <v>127</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E130">
         <v>2019</v>
@@ -26233,10 +26233,10 @@
         <v>128</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E131">
         <v>2020</v>
@@ -26403,10 +26403,10 @@
         <v>129</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E132">
         <v>2019</v>
@@ -26573,10 +26573,10 @@
         <v>130</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E133">
         <v>2020</v>
@@ -26746,7 +26746,7 @@
         <v>30</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E134">
         <v>2019</v>
@@ -26916,7 +26916,7 @@
         <v>30</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E135">
         <v>2020</v>
@@ -27086,7 +27086,7 @@
         <v>30</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E136">
         <v>2019</v>
@@ -27256,7 +27256,7 @@
         <v>30</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E137">
         <v>2020</v>
@@ -27426,7 +27426,7 @@
         <v>30</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E138">
         <v>2019</v>
@@ -27596,7 +27596,7 @@
         <v>30</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E139">
         <v>2020</v>
@@ -27766,7 +27766,7 @@
         <v>30</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E140">
         <v>2019</v>
@@ -27936,7 +27936,7 @@
         <v>30</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E141">
         <v>2020</v>
@@ -28106,7 +28106,7 @@
         <v>30</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E142">
         <v>2019</v>
@@ -28276,7 +28276,7 @@
         <v>30</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E143">
         <v>2020</v>
@@ -28443,10 +28443,10 @@
         <v>141</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E144">
         <v>2019</v>
@@ -28613,10 +28613,10 @@
         <v>142</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E145">
         <v>2020</v>
@@ -28783,10 +28783,10 @@
         <v>143</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E146">
         <v>2019</v>
@@ -28953,10 +28953,10 @@
         <v>144</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E147">
         <v>2020</v>
@@ -29123,10 +29123,10 @@
         <v>145</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E148">
         <v>2019</v>
@@ -29293,10 +29293,10 @@
         <v>146</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E149">
         <v>2020</v>
@@ -29463,10 +29463,10 @@
         <v>147</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E150">
         <v>2019</v>
@@ -29633,10 +29633,10 @@
         <v>148</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E151">
         <v>2020</v>
@@ -29803,10 +29803,10 @@
         <v>149</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E152">
         <v>2019</v>
@@ -29973,10 +29973,10 @@
         <v>150</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E153">
         <v>2020</v>
@@ -30143,10 +30143,10 @@
         <v>151</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E154">
         <v>2019</v>
@@ -30313,10 +30313,10 @@
         <v>152</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E155">
         <v>2020</v>
@@ -30483,10 +30483,10 @@
         <v>153</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E156">
         <v>2019</v>
@@ -30653,10 +30653,10 @@
         <v>154</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E157">
         <v>2020</v>
@@ -30823,10 +30823,10 @@
         <v>155</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E158">
         <v>2019</v>
@@ -30993,10 +30993,10 @@
         <v>156</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E159">
         <v>2020</v>
@@ -31163,10 +31163,10 @@
         <v>157</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E160">
         <v>2019</v>
@@ -31333,10 +31333,10 @@
         <v>158</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E161">
         <v>2020</v>
@@ -31503,10 +31503,10 @@
         <v>159</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E162">
         <v>2019</v>
@@ -31673,10 +31673,10 @@
         <v>160</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E163">
         <v>2020</v>

--- a/capstone1_data_complete.xlsx
+++ b/capstone1_data_complete.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funmi\Desktop\TEKsystems Data Analyst Boot Camp\Week 4\Capstone\Tek_Capstone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DF653-1DC9-4E00-9D91-EDF690C99D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFD204D-AE78-416B-84D2-364EF28D4F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4CE0BFA1-3F48-47F9-9294-3EF16AEA761A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4CE0BFA1-3F48-47F9-9294-3EF16AEA761A}"/>
   </bookViews>
   <sheets>
     <sheet name="Toy_PowerBI_Example" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_capstone1_data_complete.xlsxcapstone_productSales" hidden="1">capstone_productSales[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_capstone1_data_complete.xlsxTable10" hidden="1">Table10[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_capstone1_data_complete.xlsxTable9" hidden="1">Table9[]</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Toy_PowerBI_Example!$K$4:$N$24</definedName>
     <definedName name="MidVal">[1]Sales_Transactions_Dataset_Week!$BH$3</definedName>
     <definedName name="ModVal">[1]Sales_Transactions_Dataset_Week!$BH$2</definedName>
@@ -29,6 +32,18 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Table9" name="Table9" connection="WorksheetConnection_capstone1_data_complete.xlsx!Table9"/>
+          <x15:modelTable id="capstone_productSales" name="capstone_productSales" connection="WorksheetConnection_capstone1_data_complete.xlsx!capstone_productSales"/>
+          <x15:modelTable id="Table10" name="Table10" connection="WorksheetConnection_capstone1_data_complete.xlsx!Table10"/>
+        </x15:modelTables>
+        <x15:modelRelationships>
+          <x15:modelRelationship fromTable="capstone_productSales" fromColumn="EMP_ID" toTable="Table9" toColumn="EmpID"/>
+        </x15:modelRelationships>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,6 +62,42 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1043192A-8A8F-4A2C-9B00-5D1509F46ACD}" keepAlive="1" name="Query - Table7" description="Connection to the 'Table7' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table7;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table7]"/>
+  </connection>
+  <connection id="2" xr16:uid="{340D9F6A-F4F0-40E5-A559-FC693198E72F}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="7" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{6C056AC1-0FA0-480A-A610-9314146E5210}" name="WorksheetConnection_capstone1_data_complete.xlsx!capstone_productSales" type="102" refreshedVersion="7" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="capstone_productSales">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_capstone1_data_complete.xlsxcapstone_productSales"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="4" xr16:uid="{F7F4230E-1DA2-4449-8F6A-8BB5890022E7}" name="WorksheetConnection_capstone1_data_complete.xlsx!Table10" type="102" refreshedVersion="7" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table10">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_capstone1_data_complete.xlsxTable10"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="5" xr16:uid="{5B56F6EB-C28B-4768-A9CB-97B236C3A752}" name="WorksheetConnection_capstone1_data_complete.xlsx!Table9" type="102" refreshedVersion="7" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table9" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_capstone1_data_complete.xlsxTable9"/>
+        </x15:connection>
+      </ext>
+    </extLst>
   </connection>
 </connections>
 </file>
@@ -1682,7 +1733,7 @@
   </sheetPr>
   <dimension ref="B2:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -4443,8 +4494,8 @@
   </sheetPr>
   <dimension ref="A1:BE163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:BE163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
